--- a/resources/fuzzy_rules/archs.xlsx
+++ b/resources/fuzzy_rules/archs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c5dd28f289d0b37/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fande\PycharmProjects\bio_ml_project\resources\fuzzy_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{211B2D9C-630B-491A-8D6A-E45D35CE65D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AEF7B0-6653-488A-A763-E8E425209A40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD73A8B0-06AF-4E93-AD40-D4CEBBECA93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECDC340D-78E5-40D9-9764-266611EA0DD1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="10">
   <si>
     <t>arch_node_1</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>nm</t>
+  </si>
+  <si>
+    <t>l0</t>
   </si>
 </sst>
 </file>
@@ -130,10 +133,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D5F96-BCF7-4472-A1CC-C0ECCABFD4E5}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -450,7 +449,7 @@
     <col min="7" max="7" width="12.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -472,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>8</v>
       </c>
@@ -483,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>9</v>
       </c>
@@ -494,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>7</v>
       </c>
@@ -505,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10</v>
       </c>
@@ -516,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>8</v>
       </c>
@@ -524,10 +523,13 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -538,7 +540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -549,7 +551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
@@ -560,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>11</v>
       </c>
@@ -571,7 +573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>12</v>
       </c>
@@ -582,7 +584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>14</v>
       </c>
@@ -593,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -604,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>23</v>
       </c>
@@ -615,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>4</v>
       </c>
@@ -623,10 +625,13 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>8</v>
       </c>
@@ -637,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>6</v>
       </c>
@@ -645,10 +650,13 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>11</v>
       </c>
@@ -659,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>17</v>
       </c>
@@ -667,10 +675,13 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10</v>
       </c>
@@ -678,10 +689,13 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>10</v>
       </c>
@@ -692,7 +706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>17</v>
       </c>
@@ -703,7 +717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>4</v>
       </c>
@@ -714,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>15</v>
       </c>
@@ -725,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>16</v>
       </c>
@@ -736,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>20</v>
       </c>
@@ -747,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>21</v>
       </c>
@@ -758,7 +772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0</v>
       </c>
@@ -769,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>19</v>
       </c>
@@ -780,7 +794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>45</v>
       </c>
@@ -791,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>18</v>
       </c>

--- a/resources/fuzzy_rules/archs.xlsx
+++ b/resources/fuzzy_rules/archs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fande\PycharmProjects\bio_ml_project\resources\fuzzy_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD73A8B0-06AF-4E93-AD40-D4CEBBECA93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34C87E-7902-4F1B-876C-974BF4521B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECDC340D-78E5-40D9-9764-266611EA0DD1}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/resources/fuzzy_rules/archs.xlsx
+++ b/resources/fuzzy_rules/archs.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fande\PycharmProjects\bio_ml_project\resources\fuzzy_rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariolepore/PycharmProjects/bio_ml_project/resources/fuzzy_rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34C87E-7902-4F1B-876C-974BF4521B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A48D57-4DF6-A943-9820-BC25447B12D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECDC340D-78E5-40D9-9764-266611EA0DD1}"/>
+    <workbookView xWindow="8580" yWindow="3340" windowWidth="25020" windowHeight="16040" xr2:uid="{ECDC340D-78E5-40D9-9764-266611EA0DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$A$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
   <si>
     <t>arch_node_1</t>
   </si>
@@ -53,9 +53,6 @@
     <t>mh</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -65,7 +62,10 @@
     <t>nm</t>
   </si>
   <si>
-    <t>l0</t>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -133,6 +133,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,24 +436,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D5F96-BCF7-4472-A1CC-C0ECCABFD4E5}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.46484375" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.9296875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,111 +464,108 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>42</v>
@@ -573,78 +574,75 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>43</v>
@@ -652,52 +650,43 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>10</v>
-      </c>
       <c r="B21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>44</v>
@@ -706,381 +695,448 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B27">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>0</v>
       </c>
       <c r="B29">
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30">
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>47</v>
       </c>
       <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>56</v>
+      </c>
+      <c r="B47">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>58</v>
+      </c>
+      <c r="B49">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>25</v>
-      </c>
-      <c r="B36">
-        <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>33</v>
-      </c>
-      <c r="B37">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>46</v>
-      </c>
-      <c r="B39">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>59</v>
+      </c>
+      <c r="B50">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>24</v>
-      </c>
-      <c r="B44">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>32</v>
-      </c>
-      <c r="B45">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>48</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>48</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>43</v>
-      </c>
-      <c r="B48">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>44</v>
-      </c>
-      <c r="B49">
-        <v>49</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
       <c r="C50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>67</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>68</v>
+      </c>
+      <c r="B59">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>70</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>71</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A40" xr:uid="{5F3D5F96-BCF7-4472-A1CC-C0ECCABFD4E5}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/resources/fuzzy_rules/archs.xlsx
+++ b/resources/fuzzy_rules/archs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariolepore/PycharmProjects/bio_ml_project/resources/fuzzy_rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A48D57-4DF6-A943-9820-BC25447B12D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6ABEC0-8AF3-BE4F-B14E-4C6C826B60D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="3340" windowWidth="25020" windowHeight="16040" xr2:uid="{ECDC340D-78E5-40D9-9764-266611EA0DD1}"/>
+    <workbookView xWindow="0" yWindow="1340" windowWidth="25020" windowHeight="16040" xr2:uid="{ECDC340D-78E5-40D9-9764-266611EA0DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$A$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$A$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
   <si>
     <t>arch_node_1</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>vl</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D5F96-BCF7-4472-A1CC-C0ECCABFD4E5}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -472,7 +475,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -499,29 +502,29 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>41</v>
@@ -532,51 +535,51 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>42</v>
@@ -587,40 +590,40 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>43</v>
@@ -631,35 +634,35 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -667,48 +670,48 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>44</v>
@@ -719,51 +722,51 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>46</v>
@@ -774,29 +777,29 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>47</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>47</v>
@@ -818,10 +821,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -829,7 +832,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>48</v>
@@ -840,7 +843,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>48</v>
@@ -851,10 +854,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -862,7 +865,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>49</v>
@@ -873,7 +876,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>49</v>
@@ -884,7 +887,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>49</v>
@@ -895,18 +898,18 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -917,10 +920,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -928,7 +931,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -939,10 +942,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -950,7 +953,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -961,10 +964,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -972,7 +975,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -983,10 +986,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -994,7 +997,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -1005,10 +1008,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -1027,10 +1030,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -1038,7 +1041,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -1049,10 +1052,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -1060,7 +1063,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>15</v>
@@ -1071,10 +1074,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -1093,10 +1096,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -1104,7 +1107,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>17</v>
@@ -1115,10 +1118,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -1126,7 +1129,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>18</v>
@@ -1135,8 +1138,19 @@
         <v>9</v>
       </c>
     </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A40" xr:uid="{5F3D5F96-BCF7-4472-A1CC-C0ECCABFD4E5}"/>
+  <autoFilter ref="A1:A41" xr:uid="{5F3D5F96-BCF7-4472-A1CC-C0ECCABFD4E5}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/resources/fuzzy_rules/archs.xlsx
+++ b/resources/fuzzy_rules/archs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariolepore/PycharmProjects/bio_ml_project/resources/fuzzy_rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1C5BD6-7961-F547-ACFA-422B3E046D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D015168C-A099-874A-A856-4D2F8796D7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{ECDC340D-78E5-40D9-9764-266611EA0DD1}"/>
   </bookViews>
@@ -16,20 +16,12 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$A$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$A$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -137,16 +129,16 @@
     <t>ml</t>
   </si>
   <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>vl</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>l</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>vl</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
 </sst>
 </file>
@@ -515,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D5F96-BCF7-4472-A1CC-C0ECCABFD4E5}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1138,7 +1130,7 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1155,7 +1147,7 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1172,7 +1164,7 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1189,7 +1181,7 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1223,7 +1215,7 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1240,7 +1232,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1274,7 +1266,7 @@
         <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1291,7 +1283,7 @@
         <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1308,7 +1300,7 @@
         <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1325,7 +1317,7 @@
         <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1342,7 +1334,7 @@
         <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1359,7 +1351,7 @@
         <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1376,7 +1368,7 @@
         <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1393,7 +1385,7 @@
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1410,7 +1402,7 @@
         <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1427,7 +1419,7 @@
         <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1444,7 +1436,7 @@
         <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1461,7 +1453,7 @@
         <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1478,7 +1470,7 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1495,7 +1487,7 @@
         <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1512,7 +1504,7 @@
         <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1529,7 +1521,7 @@
         <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1546,7 +1538,7 @@
         <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1563,7 +1555,7 @@
         <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1580,7 +1572,7 @@
         <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1648,7 +1640,7 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1662,7 +1654,7 @@
         <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1676,7 +1668,7 @@
         <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1690,7 +1682,7 @@
         <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1704,7 +1696,7 @@
         <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -1718,14 +1710,14 @@
         <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A68" xr:uid="{5F3D5F96-BCF7-4472-A1CC-C0ECCABFD4E5}"/>
+  <autoFilter ref="A1:A74" xr:uid="{5F3D5F96-BCF7-4472-A1CC-C0ECCABFD4E5}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
